--- a/excel/class_notes/what-if/Goal Seek CLASS (1).xlsx
+++ b/excel/class_notes/what-if/Goal Seek CLASS (1).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATA ANALYSIS TOOL\GOAL SEEK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Goal Seek" sheetId="2" r:id="rId1"/>
@@ -28,10 +23,18 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="venue">[1]Scenario1!$B$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,6 +43,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Cost of House</t>
+  </si>
+  <si>
+    <t>Down Payment</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Repayments years</t>
+  </si>
+  <si>
+    <t>Payments per year</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Amount borrowed</t>
+  </si>
+  <si>
+    <t>Monthly Rate</t>
+  </si>
+  <si>
+    <t>Payments Periods</t>
+  </si>
+  <si>
+    <t>Monthly Payments</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>% Contribution</t>
+  </si>
+  <si>
+    <t>Contribution</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Oppo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>Loan Amount</t>
   </si>
   <si>
@@ -98,80 +158,27 @@
   </si>
   <si>
     <t>Raghu</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Monthly Rate</t>
-  </si>
-  <si>
-    <t>Down Payment</t>
-  </si>
-  <si>
-    <t>Cost of House</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>Repayments years</t>
-  </si>
-  <si>
-    <t>Payments per year</t>
-  </si>
-  <si>
-    <t>Amount borrowed</t>
-  </si>
-  <si>
-    <t>Payments Periods</t>
-  </si>
-  <si>
-    <t>Monthly Payments</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>Oppo</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>% Contribution</t>
-  </si>
-  <si>
-    <t>Contribution</t>
-  </si>
-  <si>
-    <t>Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,18 +186,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +347,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -214,64 +544,350 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Scenario Summary"/>
@@ -282,18 +898,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="5">
-          <cell r="B5">
-            <v>800</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>60</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
@@ -343,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,438 +1157,437 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5727272727273" customWidth="1"/>
+    <col min="2" max="2" width="25.8545454545455" customWidth="1"/>
+    <col min="3" max="3" width="15.2818181818182" customWidth="1"/>
+    <col min="4" max="4" width="16.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <f>B2-B3</f>
         <v>180000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <f>B4/B6</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4">
+        <v>0.00333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <f>B5*B6</f>
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <f>PMT(B10,B11,-B9)</f>
-        <v>1331.4382660966864</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="8">
+        <v>1331.43826609666</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>150000</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>0.2</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f>B15*C15</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
         <v>240000</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>0.25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:D17" si="0">B16*C16</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="15">
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="11">
         <v>0.15</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
         <f>SUM(B15:B17)</f>
         <v>390000</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8">
+      <c r="C18" s="2"/>
+      <c r="D18" s="5">
         <f>SUM(D15:D17)</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="19" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12">
         <v>100000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12">
         <f>B24*12</f>
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13">
         <v>0.12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13">
         <f>B26/12</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="9">
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14">
         <f>PMT(B27,B25,B23)</f>
-        <v>-2224.4447684901775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="4">
+        <v>-2224.44476849018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>70</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>88</v>
       </c>
-      <c r="D31" s="4">
-        <v>81.999999999999972</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="2">
+        <v>82</v>
+      </c>
+      <c r="E31" s="16">
         <f>AVERAGE(B31:D31)</f>
-        <v>79.999999999999986</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>84</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>69</v>
       </c>
-      <c r="D32" s="4">
-        <v>86.999999999999986</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="2">
+        <v>87</v>
+      </c>
+      <c r="E32" s="16">
         <f t="shared" ref="E32:E39" si="1">AVERAGE(B32:D32)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="4">
+    <row r="33" spans="1:5">
+      <c r="A33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>70</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>98</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5">
+      <c r="D33" s="2"/>
+      <c r="E33" s="16">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
         <v>69</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>63</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
+      <c r="D34" s="2"/>
+      <c r="E34" s="16">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="4">
+    <row r="35" spans="1:5">
+      <c r="A35" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
         <v>90</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>67</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5">
+      <c r="D35" s="2"/>
+      <c r="E35" s="16">
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="36" spans="1:5">
+      <c r="A36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
         <v>64</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>96</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5">
+      <c r="D36" s="2"/>
+      <c r="E36" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="4">
+    <row r="37" spans="1:5">
+      <c r="A37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
         <v>58</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>64</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5">
+      <c r="D37" s="2"/>
+      <c r="E37" s="16">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" spans="1:5">
+      <c r="A38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
         <v>48</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>86</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5">
+      <c r="D38" s="2"/>
+      <c r="E38" s="16">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="4">
+    <row r="39" spans="1:5">
+      <c r="A39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
         <v>76</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>42</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5">
+      <c r="D39" s="2"/>
+      <c r="E39" s="16">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:5">
+      <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+    <row r="43" spans="1:1">
+      <c r="A43" s="17"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/class_notes/what-if/Goal Seek CLASS (1).xlsx
+++ b/excel/class_notes/what-if/Goal Seek CLASS (1).xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920"/>
+    <workbookView windowWidth="19200" windowHeight="6920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Goal Seek" sheetId="2" r:id="rId1"/>
+    <sheet name="data table" sheetId="3" r:id="rId2"/>
+    <sheet name="senerio" sheetId="4" r:id="rId3"/>
+    <sheet name="solver" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="price">[1]Scenario1!$B$17</definedName>
@@ -22,6 +25,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="venue">[1]Scenario1!$B$5</definedName>
+    <definedName name="Food___beverages">senerio!$B$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,40 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Cost of House</t>
-  </si>
-  <si>
-    <t>Down Payment</t>
-  </si>
-  <si>
-    <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>Repayments years</t>
-  </si>
-  <si>
-    <t>Payments per year</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Amount borrowed</t>
-  </si>
-  <si>
-    <t>Monthly Rate</t>
-  </si>
-  <si>
-    <t>Payments Periods</t>
-  </si>
-  <si>
-    <t>Monthly Payments</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>Revenue</t>
   </si>
@@ -97,6 +68,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Q. what revenue he generate in oppo to achive the target value</t>
+  </si>
+  <si>
     <t>Target</t>
   </si>
   <si>
@@ -118,6 +92,9 @@
     <t>EMI</t>
   </si>
   <si>
+    <t>Q. what is the time period for payment from 1331 to 1000</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -158,6 +135,150 @@
   </si>
   <si>
     <t>Raghu</t>
+  </si>
+  <si>
+    <t>Interest Rate(Year)</t>
+  </si>
+  <si>
+    <t>sales commission</t>
+  </si>
+  <si>
+    <t>Term(Monthly)</t>
+  </si>
+  <si>
+    <t>Monthly Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q. what is my EMI on Diffrent different intrest rate </t>
+  </si>
+  <si>
+    <t>I_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q. what is my EMI on Diffrent different intrest rate and different month </t>
+  </si>
+  <si>
+    <t>Q2.</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month </t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Ex.2</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Dis.Amt</t>
+  </si>
+  <si>
+    <t>Net.Amt</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Pant</t>
+  </si>
+  <si>
+    <t>Blezer</t>
+  </si>
+  <si>
+    <t>Coat</t>
+  </si>
+  <si>
+    <t>Q1.</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Price Per Unit</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Cost Per Unit</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>&lt;=4</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>&gt;=3</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Out of</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>SSt</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Computer</t>
   </si>
 </sst>
 </file>
@@ -173,7 +294,7 @@
     <numFmt numFmtId="181" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +309,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -334,12 +468,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -673,157 +813,179 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,13 +1325,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A13:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.5727272727273" customWidth="1"/>
     <col min="2" max="2" width="25.8545454545455" customWidth="1"/>
@@ -1177,417 +1339,1472 @@
     <col min="4" max="4" width="16.8545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="D14" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <f>B2-B3</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <f>B4/B6</f>
-        <v>0.00333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <f>B5*B6</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <f>PMT(B10,B11,-B9)</f>
-        <v>1331.43826609666</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B15" s="28">
         <v>150000</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>0.2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="28">
         <f>B15*C15</f>
         <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="28">
         <v>240000</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>0.25</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="28">
         <f t="shared" ref="D16:D17" si="0">B16*C16</f>
         <v>60000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11">
+      <c r="A17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="8">
         <v>0.15</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="28">
         <f>SUM(B15:B17)</f>
         <v>390000</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5">
+      <c r="C18" s="7"/>
+      <c r="D18" s="28">
         <f>SUM(D15:D17)</f>
         <v>90000</v>
       </c>
+      <c r="E18">
+        <v>15000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
         <v>150000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6">
         <f>B24*12</f>
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="29">
         <v>0.12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="A27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="29">
         <f>B26/12</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="14">
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="30">
         <f>PMT(B27,B25,B23)</f>
         <v>-2224.44476849018</v>
       </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>29</v>
+      <c r="A30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7">
         <v>70</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="7">
         <v>88</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="7">
         <v>82</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="31">
         <f>AVERAGE(B31:D31)</f>
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7">
         <v>84</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>69</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="7">
         <v>87</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="31">
         <f t="shared" ref="E32:E39" si="1">AVERAGE(B32:D32)</f>
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="7">
         <v>70</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="7">
         <v>98</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="16">
+      <c r="D33" s="7"/>
+      <c r="E33" s="31">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7">
         <v>69</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>63</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="16">
+      <c r="D34" s="7"/>
+      <c r="E34" s="31">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="7">
         <v>90</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="7">
         <v>67</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="16">
+      <c r="D35" s="7"/>
+      <c r="E35" s="31">
         <f t="shared" si="1"/>
         <v>78.5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7">
         <v>64</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="7">
         <v>96</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="16">
+      <c r="D36" s="7"/>
+      <c r="E36" s="31">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7">
         <v>58</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="7">
         <v>64</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="16">
+      <c r="D37" s="7"/>
+      <c r="E37" s="31">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="7">
         <v>48</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="7">
         <v>86</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="16">
+      <c r="D38" s="7"/>
+      <c r="E38" s="31">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="7">
         <v>76</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="7">
         <v>42</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="16">
+      <c r="D39" s="7"/>
+      <c r="E39" s="31">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="17"/>
+      <c r="A43" s="32"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="17"/>
+      <c r="A44" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="10.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="14.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="11.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15">
+        <v>100000</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15">
+        <v>60</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="18">
+        <f>PMT(B2/12,B3,B1)</f>
+        <v>-1933.28015294283</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19">
+        <f>B4*B3</f>
+        <v>-115996.80917657</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19">
+        <f>B4</f>
+        <v>-1933.28015294283</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-1709.37474454528</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-2124.70447112683</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-2431.80571163591</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-1933.28015294279</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="19">
+        <f>B4</f>
+        <v>-1933.28015294283</v>
+      </c>
+      <c r="B14" s="16">
+        <v>12</v>
+      </c>
+      <c r="C14" s="16">
+        <v>24</v>
+      </c>
+      <c r="D14" s="16">
+        <v>36</v>
+      </c>
+      <c r="E14" s="21">
+        <v>48</v>
+      </c>
+      <c r="F14" s="21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-8606.64297070806</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-4432.06102527569</v>
+      </c>
+      <c r="D15" s="19">
+        <v>-3042.19374515551</v>
+      </c>
+      <c r="E15" s="21">
+        <v>-2348.50290479356</v>
+      </c>
+      <c r="F15" s="21">
+        <v>-716.431058478165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-8791.58872300096</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-4614.49263375165</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-3226.71871938375</v>
+      </c>
+      <c r="E16" s="21">
+        <v>-2536.25834347472</v>
+      </c>
+      <c r="F16" s="21">
+        <v>-965.021645074008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-9073.0857859208</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-4896.311051761</v>
+      </c>
+      <c r="D17" s="16">
+        <v>-3515.70330363501</v>
+      </c>
+      <c r="E17" s="21">
+        <v>-2834.02808047919</v>
+      </c>
+      <c r="F17" s="21">
+        <v>-1391.25594002711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-8606.64297070806</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-4432.06102527569</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-3042.19374515551</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-2348.50290479356</v>
+      </c>
+      <c r="F18" s="16">
+        <v>-716.431058478165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16">
+        <f t="shared" ref="B19:F19" si="0">B18*B14</f>
+        <v>-103279.715648497</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="0"/>
+        <v>-106369.464606617</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="0"/>
+        <v>-109518.974825598</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="0"/>
+        <v>-112728.139430091</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="0"/>
+        <v>-171943.45403476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22">
+        <f>(B24*B25)*B26</f>
+        <v>27500</v>
+      </c>
+      <c r="E23" s="22">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2</v>
+      </c>
+      <c r="G23" s="22">
+        <v>3</v>
+      </c>
+      <c r="H23" s="22">
+        <v>4</v>
+      </c>
+      <c r="I23" s="22">
+        <v>5</v>
+      </c>
+      <c r="J23" s="22">
+        <v>6</v>
+      </c>
+      <c r="K23" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="23">
+        <v>500</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22">
+        <v>100</v>
+      </c>
+      <c r="E24" s="22">
+        <v>5500</v>
+      </c>
+      <c r="F24" s="22">
+        <v>11000</v>
+      </c>
+      <c r="G24" s="22">
+        <v>16500</v>
+      </c>
+      <c r="H24" s="22">
+        <v>22000</v>
+      </c>
+      <c r="I24" s="22">
+        <v>27500</v>
+      </c>
+      <c r="J24" s="22">
+        <v>33000</v>
+      </c>
+      <c r="K24" s="22">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="23">
+        <v>55</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
+        <v>200</v>
+      </c>
+      <c r="E25" s="22">
+        <v>11000</v>
+      </c>
+      <c r="F25" s="22">
+        <v>22000</v>
+      </c>
+      <c r="G25" s="22">
+        <v>33000</v>
+      </c>
+      <c r="H25" s="22">
+        <v>44000</v>
+      </c>
+      <c r="I25" s="22">
+        <v>55000</v>
+      </c>
+      <c r="J25" s="22">
+        <v>66000</v>
+      </c>
+      <c r="K25" s="22">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22">
+        <v>300</v>
+      </c>
+      <c r="E26" s="22">
+        <v>16500</v>
+      </c>
+      <c r="F26" s="22">
+        <v>33000</v>
+      </c>
+      <c r="G26" s="22">
+        <v>49500</v>
+      </c>
+      <c r="H26" s="22">
+        <v>66000</v>
+      </c>
+      <c r="I26" s="22">
+        <v>82500</v>
+      </c>
+      <c r="J26" s="22">
+        <v>99000</v>
+      </c>
+      <c r="K26" s="22">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
+        <v>400</v>
+      </c>
+      <c r="E27" s="22">
+        <v>22000</v>
+      </c>
+      <c r="F27" s="22">
+        <v>44000</v>
+      </c>
+      <c r="G27" s="22">
+        <v>66000</v>
+      </c>
+      <c r="H27" s="22">
+        <v>88000</v>
+      </c>
+      <c r="I27" s="22">
+        <v>110000</v>
+      </c>
+      <c r="J27" s="22">
+        <v>132000</v>
+      </c>
+      <c r="K27" s="22">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22">
+        <v>500</v>
+      </c>
+      <c r="E28" s="22">
+        <v>27500</v>
+      </c>
+      <c r="F28" s="22">
+        <v>55000</v>
+      </c>
+      <c r="G28" s="22">
+        <v>82500</v>
+      </c>
+      <c r="H28" s="22">
+        <v>110000</v>
+      </c>
+      <c r="I28" s="22">
+        <v>137500</v>
+      </c>
+      <c r="J28" s="22">
+        <v>165000</v>
+      </c>
+      <c r="K28" s="22">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="23">
+        <f>(B24*B25)*B26</f>
+        <v>27500</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22">
+        <v>600</v>
+      </c>
+      <c r="E29" s="22">
+        <v>33000</v>
+      </c>
+      <c r="F29" s="22">
+        <v>66000</v>
+      </c>
+      <c r="G29" s="22">
+        <v>99000</v>
+      </c>
+      <c r="H29" s="22">
+        <v>132000</v>
+      </c>
+      <c r="I29" s="22">
+        <v>165000</v>
+      </c>
+      <c r="J29" s="22">
+        <v>198000</v>
+      </c>
+      <c r="K29" s="22">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22">
+        <v>700</v>
+      </c>
+      <c r="E30" s="22">
+        <v>38500</v>
+      </c>
+      <c r="F30" s="22">
+        <v>77000</v>
+      </c>
+      <c r="G30" s="22">
+        <v>115500</v>
+      </c>
+      <c r="H30" s="22">
+        <v>154000</v>
+      </c>
+      <c r="I30" s="22">
+        <v>192500</v>
+      </c>
+      <c r="J30" s="22">
+        <v>231000</v>
+      </c>
+      <c r="K30" s="22">
+        <v>269500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22">
+        <v>800</v>
+      </c>
+      <c r="E31" s="22">
+        <v>44000</v>
+      </c>
+      <c r="F31" s="22">
+        <v>88000</v>
+      </c>
+      <c r="G31" s="22">
+        <v>132000</v>
+      </c>
+      <c r="H31" s="22">
+        <v>176000</v>
+      </c>
+      <c r="I31" s="22">
+        <v>220000</v>
+      </c>
+      <c r="J31" s="22">
+        <v>264000</v>
+      </c>
+      <c r="K31" s="22">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22">
+        <v>900</v>
+      </c>
+      <c r="E32" s="22">
+        <v>49500</v>
+      </c>
+      <c r="F32" s="22">
+        <v>99000</v>
+      </c>
+      <c r="G32" s="22">
+        <v>148500</v>
+      </c>
+      <c r="H32" s="22">
+        <v>198000</v>
+      </c>
+      <c r="I32" s="22">
+        <v>247500</v>
+      </c>
+      <c r="J32" s="22">
+        <v>297000</v>
+      </c>
+      <c r="K32" s="22">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="22">
+        <v>55000</v>
+      </c>
+      <c r="F33" s="22">
+        <v>110000</v>
+      </c>
+      <c r="G33" s="22">
+        <v>165000</v>
+      </c>
+      <c r="H33" s="22">
+        <v>220000</v>
+      </c>
+      <c r="I33" s="22">
+        <v>275000</v>
+      </c>
+      <c r="J33" s="22">
+        <v>330000</v>
+      </c>
+      <c r="K33" s="22">
+        <v>385000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2200</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D8" si="0">B3*C3/100</f>
+        <v>220</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E8" si="1">B3-D3</f>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7250</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5">
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14">
+        <f>SUM(E3:E8)</f>
+        <v>16661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2">
+        <v>706.233350845093</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.26021512548468</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B1*B2</f>
+        <v>3008.70600339199</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.42829057533856</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2">
+        <f>B1*B6</f>
+        <v>1008.70643900182</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B3-B7</f>
+        <v>1999.99956439018</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="7">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:D22" si="0">C16/100</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="7">
+        <v>100</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="7">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="7">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7">
+        <v>100</v>
+      </c>
+      <c r="C20" s="7">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>27</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="7">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7">
+        <f>SUM(B16:B22)</f>
+        <v>700</v>
+      </c>
+      <c r="C23" s="7">
+        <f>SUM(C16:C22)</f>
+        <v>92</v>
+      </c>
+      <c r="D23" s="12">
+        <f>C23/700</f>
+        <v>0.131428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>